--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trohe\Desktop\Studium Informatik\5. Sem info\Systempraktikum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trohe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1544E149-5AB0-4CB7-A9BD-4BB0C3EE9B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EB4F99-2D00-47C4-97B0-79B68D336BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{4FFE87BA-21C0-4908-A949-91BB63D52482}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4FFE87BA-21C0-4908-A949-91BB63D52482}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0C961C-C651-4F6A-BCD2-E1BAE75A185F}">
   <dimension ref="B2:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,7 +959,7 @@
       <c r="G7" s="9">
         <v>7</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="1">

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trohe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EB4F99-2D00-47C4-97B0-79B68D336BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1926E1C6-CAB6-4D18-8120-926D8928B874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4FFE87BA-21C0-4908-A949-91BB63D52482}"/>
   </bookViews>
@@ -813,7 +813,7 @@
   <dimension ref="B2:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1021,7 +1021,7 @@
       <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
@@ -1042,7 +1042,7 @@
       <c r="G11" s="9">
         <v>1</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
@@ -1063,7 +1063,7 @@
       <c r="G12" s="9">
         <v>1</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
@@ -1084,8 +1084,8 @@
       <c r="G13" s="9">
         <v>3</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="1">

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trohe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trohe\Desktop\Studium Informatik\5. Sem info\Systempraktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1926E1C6-CAB6-4D18-8120-926D8928B874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A46B27-B863-4A47-ACEB-8D4AFFEE36CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4FFE87BA-21C0-4908-A949-91BB63D52482}"/>
+    <workbookView xWindow="28680" yWindow="-2010" windowWidth="29040" windowHeight="17640" xr2:uid="{4FFE87BA-21C0-4908-A949-91BB63D52482}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>Kick off</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Alex/Tobias</t>
+  </si>
+  <si>
+    <t>Lorena/Tobias</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +400,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -496,6 +505,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -813,7 +828,7 @@
   <dimension ref="B2:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1069,19 +1084,19 @@
       <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="29">
         <v>44528</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="30">
         <v>44530</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="31">
         <v>3</v>
       </c>
       <c r="H13" s="7"/>
@@ -1106,7 +1121,7 @@
       <c r="G14" s="9">
         <v>2</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
@@ -1127,7 +1142,7 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.35">
@@ -1149,8 +1164,8 @@
       <c r="G16" s="10">
         <v>3</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
@@ -1171,7 +1186,7 @@
       <c r="G17" s="9">
         <v>3</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
@@ -1226,6 +1241,8 @@
       <c r="G20" s="9">
         <v>4</v>
       </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
@@ -1235,7 +1252,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E21" s="5">
         <v>44544</v>
@@ -1246,6 +1263,7 @@
       <c r="G21" s="9">
         <v>3</v>
       </c>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
@@ -1266,6 +1284,8 @@
       <c r="G22" s="9">
         <v>4</v>
       </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
@@ -1286,6 +1306,8 @@
       <c r="G23" s="9">
         <v>5</v>
       </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
@@ -1295,7 +1317,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E24" s="5">
         <v>44552</v>
@@ -1306,6 +1328,7 @@
       <c r="G24" s="9">
         <v>3</v>
       </c>
+      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="1">

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trohe\Desktop\Studium Informatik\5. Sem info\Systempraktikum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trohe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A46B27-B863-4A47-ACEB-8D4AFFEE36CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F4C5C1-EA27-4E0B-A8A2-DADC65FB3787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2010" windowWidth="29040" windowHeight="17640" xr2:uid="{4FFE87BA-21C0-4908-A949-91BB63D52482}"/>
+    <workbookView xWindow="28680" yWindow="-2010" windowWidth="29040" windowHeight="17520" xr2:uid="{4FFE87BA-21C0-4908-A949-91BB63D52482}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t>Kick off</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>Lorena/Tobias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Config-Fehler beheben; Readfehler beheben; Reachable Blox klären; Shared Memory fixen; Git aufräumen; Vorbereiten Think-Methode </t>
+  </si>
+  <si>
+    <t>Arian/Alle</t>
   </si>
 </sst>
 </file>
@@ -466,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -510,6 +516,21 @@
     <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,7 +849,7 @@
   <dimension ref="B2:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1241,8 +1262,8 @@
       <c r="G20" s="9">
         <v>4</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
@@ -1263,7 +1284,7 @@
       <c r="G21" s="9">
         <v>3</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
@@ -1284,8 +1305,8 @@
       <c r="G22" s="9">
         <v>4</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
@@ -1306,8 +1327,8 @@
       <c r="G23" s="9">
         <v>5</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
@@ -1328,7 +1349,7 @@
       <c r="G24" s="9">
         <v>3</v>
       </c>
-      <c r="L24" s="2"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
@@ -1381,6 +1402,7 @@
       <c r="G27" s="15">
         <v>5</v>
       </c>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
@@ -1401,6 +1423,8 @@
       <c r="G28" s="9">
         <v>5</v>
       </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
@@ -1421,26 +1445,29 @@
       <c r="G29" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B30" s="1">
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="2:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="B30" s="32">
         <v>25</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="C30" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="35">
         <v>44208</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="35">
         <v>44210</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="34">
         <v>3</v>
       </c>
+      <c r="O30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
